--- a/Excel_OleDb_Template/App_Data/test1.xlsx
+++ b/Excel_OleDb_Template/App_Data/test1.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="11220"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="11220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="123" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -437,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -575,4 +577,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>